--- a/crawling/data/yogiyo_서울대_final.xlsx
+++ b/crawling/data/yogiyo_서울대_final.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32AFC88-78DF-4E32-8311-966C9870BAE5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAEDE42-04FF-4696-8E6D-5024F11FBF32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="1425" windowWidth="21600" windowHeight="13935" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="1425" windowWidth="21600" windowHeight="13935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="치킨" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="피자양식" sheetId="2" r:id="rId2"/>
+    <sheet name="중국집" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="816">
   <si>
     <t>상세페이지URL</t>
   </si>
@@ -1281,9 +1282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7760</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/241703/</t>
   </si>
   <si>
@@ -1293,9 +1291,6 @@
     <t>반올림피자샵-신림점</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/279386/</t>
   </si>
   <si>
@@ -1305,9 +1300,6 @@
     <t>리얼피자-신림직영점</t>
   </si>
   <si>
-    <t>1774</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/239703/</t>
   </si>
   <si>
@@ -1317,9 +1309,6 @@
     <t>7번가피자-서울대입구점</t>
   </si>
   <si>
-    <t>1747</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/252152/</t>
   </si>
   <si>
@@ -1329,9 +1318,6 @@
     <t>착한피자-신림직영점</t>
   </si>
   <si>
-    <t>1214</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/337340/</t>
   </si>
   <si>
@@ -1341,9 +1327,6 @@
     <t>왕손피자-신림점</t>
   </si>
   <si>
-    <t>1067</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/235232/</t>
   </si>
   <si>
@@ -1353,9 +1336,6 @@
     <t>피자에땅-신림점</t>
   </si>
   <si>
-    <t>870</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/139/</t>
   </si>
   <si>
@@ -1365,9 +1345,6 @@
     <t>두로스피자</t>
   </si>
   <si>
-    <t>796</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/247373/</t>
   </si>
   <si>
@@ -1377,9 +1354,6 @@
     <t>베트남쌀국수미스사이공-신림대학동점</t>
   </si>
   <si>
-    <t>603</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/305633/</t>
   </si>
   <si>
@@ -1389,9 +1363,6 @@
     <t>고봉민김밥-봉천역1번출구점</t>
   </si>
   <si>
-    <t>568</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/242551/</t>
   </si>
   <si>
@@ -1401,9 +1372,6 @@
     <t>다온죽카페-서울대점</t>
   </si>
   <si>
-    <t>563</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/301448/</t>
   </si>
   <si>
@@ -1413,9 +1381,6 @@
     <t>베트남쌀국수포몬스-서울대점</t>
   </si>
   <si>
-    <t>562</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/284470/</t>
   </si>
   <si>
@@ -1425,9 +1390,6 @@
     <t>고스트피자-신림점</t>
   </si>
   <si>
-    <t>408</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/248551/</t>
   </si>
   <si>
@@ -1437,9 +1399,6 @@
     <t>피자알볼로-신림점</t>
   </si>
   <si>
-    <t>388</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/274818/</t>
   </si>
   <si>
@@ -1458,9 +1417,6 @@
     <t>지정환임실치즈피자-신림난곡점</t>
   </si>
   <si>
-    <t>293</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/267247/</t>
   </si>
   <si>
@@ -1470,9 +1426,6 @@
     <t>호야네돈까스&amp;파스타&amp;모밀</t>
   </si>
   <si>
-    <t>277</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/292697/</t>
   </si>
   <si>
@@ -1482,9 +1435,6 @@
     <t>유로코피자-신림점</t>
   </si>
   <si>
-    <t>233</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/292456/</t>
   </si>
   <si>
@@ -1494,9 +1444,6 @@
     <t>네오피자-관악점</t>
   </si>
   <si>
-    <t>207</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/264594/</t>
   </si>
   <si>
@@ -1515,9 +1462,6 @@
     <t>호이스홈커피-관악점</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/261423/</t>
   </si>
   <si>
@@ -1536,9 +1480,6 @@
     <t>강정구의피자생각-신림점</t>
   </si>
   <si>
-    <t>181</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/334870/</t>
   </si>
   <si>
@@ -1560,9 +1501,6 @@
     <t>21,900원 이상 배달</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/298377/</t>
   </si>
   <si>
@@ -1572,9 +1510,6 @@
     <t>피자블럭-신림점</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/344856/</t>
   </si>
   <si>
@@ -1584,9 +1519,6 @@
     <t>서울미트볼&amp;파스타-구로디지털점</t>
   </si>
   <si>
-    <t>156</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/313284/</t>
   </si>
   <si>
@@ -1596,9 +1528,6 @@
     <t>딜스테이크-서울대점</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/232486/</t>
   </si>
   <si>
@@ -1608,9 +1537,6 @@
     <t>칸토뮤직카페</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/319384/</t>
   </si>
   <si>
@@ -1626,9 +1552,6 @@
     <t>서울파스타</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/1315/</t>
   </si>
   <si>
@@ -1638,9 +1561,6 @@
     <t>미사랑임실치즈피자</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/356442/</t>
   </si>
   <si>
@@ -1650,9 +1570,6 @@
     <t>피자파는집-신림점</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/284049/</t>
   </si>
   <si>
@@ -1701,9 +1618,6 @@
     <t>미스터피자-신림녹두점</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/341936/</t>
   </si>
   <si>
@@ -1713,9 +1627,6 @@
     <t>피자컴퍼니-신림점</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/324472/</t>
   </si>
   <si>
@@ -1734,9 +1645,6 @@
     <t>파스타쏭-신림점</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/354079/</t>
   </si>
   <si>
@@ -1755,9 +1663,6 @@
     <t>딜리셔스피자-신림점</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/389220/</t>
   </si>
   <si>
@@ -1767,9 +1672,6 @@
     <t>서울미트볼&amp;파스타-관악점</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/382388/</t>
   </si>
   <si>
@@ -1791,9 +1693,6 @@
     <t>대학동수제버거</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/395744/</t>
   </si>
   <si>
@@ -1812,9 +1711,6 @@
     <t>기다란파스타&amp;플레이트</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/324032/</t>
   </si>
   <si>
@@ -1899,9 +1795,6 @@
     <t>빨간모자피자-신림점</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/275354/</t>
   </si>
   <si>
@@ -1983,9 +1876,6 @@
     <t>우아한혼술식당</t>
   </si>
   <si>
-    <t>551</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/259269/</t>
   </si>
   <si>
@@ -1995,9 +1885,6 @@
     <t>피치홈-봉천점</t>
   </si>
   <si>
-    <t>480</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/285120/</t>
   </si>
   <si>
@@ -2007,9 +1894,6 @@
     <t>피자엠-서림점</t>
   </si>
   <si>
-    <t>189</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/412926/</t>
   </si>
   <si>
@@ -2019,9 +1903,6 @@
     <t>사우나멘동-관악본점</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/2058/</t>
   </si>
   <si>
@@ -2034,9 +1915,6 @@
     <t>12,500원 이상 배달</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/304158/</t>
   </si>
   <si>
@@ -2046,9 +1924,6 @@
     <t>전티마이베트남쌀국수-난곡점</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/261156/</t>
   </si>
   <si>
@@ -2070,9 +1945,6 @@
     <t>10,400원 이상 배달</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>https://www.yogiyo.co.kr/mobile/#/398471/</t>
   </si>
   <si>
@@ -2191,6 +2063,414 @@
   </si>
   <si>
     <t>차크라인도음식-관악점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/325110/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마라탕_Top01_300x300_qSHBO5q.jpg</t>
+  </si>
+  <si>
+    <t>사천마라탕-본점</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/281909/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/충칭마라훠궈_20180703_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>충칭마라훠궈</t>
+  </si>
+  <si>
+    <t>★ 3.2</t>
+  </si>
+  <si>
+    <t>5,000원 이상 배달</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/340618/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20131128_FoodAD_crop_200x200_o2jgoHm.jpg</t>
+  </si>
+  <si>
+    <t>함흥냉면전문점-신림점</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/323622/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짬뽕01_20131128_FoodAD_crop_200x200_vUPaWEp.jpg</t>
+  </si>
+  <si>
+    <t>미림성</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378603/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191024_378603_마라탕n마라샹궈-서울대입구역점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>마라탕&amp;마라샹궈-서울대입구역점</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/262121/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/리얼안심찹쌀탕수육_20180123_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>리얼안심&amp;찹쌀탕수육-봉천점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/283062/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200116_283062_공룡도배부른안심탕수육_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>공룡도배부른안심탕수육</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/61305/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/취향저격안심탕수육_20181015_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>취향저격안심탕수육-신림점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/363163/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짬뽕01_20131128_FoodAD_crop_200x200_DA8nJFV.jpg</t>
+  </si>
+  <si>
+    <t>쓰촨마라탕</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/244982/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20191203_DHK촬영합성_차돌박이짬뽕-탕수육_Top01_300x300_fKvYUWK.jpg</t>
+  </si>
+  <si>
+    <t>짬뽕선생</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/224546/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191029_379478_한성마라탕-관악점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>한성마라탕-관악점</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/312518/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/탕수육02_20131128_FoodAD_crop_200x200_wk4n2z6.jpg</t>
+  </si>
+  <si>
+    <t>1인안심탕수육</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/323833/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/탕수육08_20131205_foodon_crop_200x200_jJKchAQ.jpg</t>
+  </si>
+  <si>
+    <t>탕수육쌀롱-본점</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378581/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191023_378581_마라공방-서울대입구역점_대표사진_200x200_ji1WG3Q.jpg</t>
+  </si>
+  <si>
+    <t>마라공방-서울대입구역점</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/379902/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/타이거마라_20191002_Franchise_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>타이거마라-난곡점</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/285030/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/브라더양꼬치-신림점_20180725_가맹로고이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>브라더양꼬치&amp;마라탕-신림점</t>
+  </si>
+  <si>
+    <t>20,000원 이상 배달</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/410704/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200115_410704_미래식부_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>미래식부</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/379487/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191029_379487_한성마라탕n마라샹궈전문점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>한성마라탕&amp;마라샹궈전문점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/226173/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짬뽕02_20131205_foodon_crop_200x200_CZ8sPsO.jpg</t>
+  </si>
+  <si>
+    <t>동희반점-신림점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/278748/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/찰스탕수육신푸드_20160621_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>찰스탕수육-사당점</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374545/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_탕수육_Side01_300x300_zBUJJV3.jpg</t>
+  </si>
+  <si>
+    <t>에찌에찌탕수육-신림점</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/367676/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190816_DHK촬영_마라탕_Top01_300x300_rMR4zoN.jpg</t>
+  </si>
+  <si>
+    <t>황비홍마라탕-신림점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/377648/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190816_DHK촬영_마라탕_Top01_300x300_VlNVO24.jpg</t>
+  </si>
+  <si>
+    <t>성민양꼬치&amp;마라탕</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378591/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191024_378591_꿔바로우맛집-서울대입구역점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>꿔바로우맛집-서울대입구역점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/410707/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20200115_410707_미래중식_대표사진_300x300.jpg</t>
+  </si>
+  <si>
+    <t>미래중식</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378613/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191024_378613_마라샹궈맛집-서울대입구역점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>마라샹궈맛집-서울대입구역점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/261146/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/혜화동짬뽕극장_20180910_Franchise이미지약정서_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>혜화동짬뽕극장-서울가산점</t>
+  </si>
+  <si>
+    <t>15,500원 이상 배달</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/336768/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/쉐프의생안심탕수육_20190531_Franchise_crop_200x200.PNG</t>
+  </si>
+  <si>
+    <t>쉐프의생안심탕수육-신림점</t>
+  </si>
+  <si>
+    <t>★ 3.3</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374925/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191114_374926_수해복마라샹궈_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>수해복마라탕</t>
+  </si>
+  <si>
+    <t>15~25분</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/415508/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_마라탕_Side02_300x300_LtHD7A5.jpg</t>
+  </si>
+  <si>
+    <t>마라제작소</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/294030/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/짜장면01_20131128_FoodAD_crop_200x200_HysJqGv.jpg</t>
+  </si>
+  <si>
+    <t>선짜장</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/305732/</t>
+  </si>
+  <si>
+    <t>혜화동짬뽕극장-서울도깨비시장점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/415228/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/franchise_logos/브라더탕수_20190426_Franchise_crop_200x200.jpg</t>
+  </si>
+  <si>
+    <t>브라더탕수-신림점</t>
+  </si>
+  <si>
+    <t>18,000원 이상 배달</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/378610/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191024_378610_마라탕맛집-서울대입구역점_대표사진_200x200.jpg</t>
+  </si>
+  <si>
+    <t>마라탕맛집-서울대입구역점</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/374926/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/업체자체_20191114_374926_수해복마라샹궈_대표사진_200x200_wQcFr20.jpg</t>
+  </si>
+  <si>
+    <t>수해복마라샹궈</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/387698/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190801_DHK촬영_부대찌개_Side01_300x300_oLGVWq5.jpg</t>
+  </si>
+  <si>
+    <t>수마라부대</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/416327/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190807_DHK촬영합성_볶음밥-삼선짬뽕-탕수육_Top01_300x300_2O8BOO0.jpg</t>
+  </si>
+  <si>
+    <t>해장각-봉천점</t>
+  </si>
+  <si>
+    <t>8,500원 이상 배달</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/mobile/#/416335/</t>
+  </si>
+  <si>
+    <t>https://www.yogiyo.co.kr/media/restaurant_logos/스탁_20190807_DHK촬영합성_볶음밥-삼선짬뽕-탕수육_Top01_300x300_8Koe60x.jpg</t>
+  </si>
+  <si>
+    <t>해장각-상도점</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2513,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4892,2239 +5174,3477 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41A7A93-EC7F-48E6-AF5C-3C4F0B96B6AA}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="49.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>443</v>
+      </c>
+      <c r="B14" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>614</v>
+      </c>
+      <c r="B17" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>617</v>
+      </c>
+      <c r="B18" t="s">
+        <v>618</v>
+      </c>
+      <c r="C18" t="s">
+        <v>619</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>455</v>
+      </c>
+      <c r="B21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B23" t="s">
+        <v>459</v>
+      </c>
+      <c r="C23" t="s">
+        <v>460</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>461</v>
+      </c>
+      <c r="B25" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" t="s">
+        <v>463</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>464</v>
+      </c>
+      <c r="B26" t="s">
+        <v>465</v>
+      </c>
+      <c r="C26" t="s">
+        <v>466</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27" t="s">
+        <v>468</v>
+      </c>
+      <c r="C27" t="s">
+        <v>469</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>470</v>
+      </c>
+      <c r="B28" t="s">
+        <v>471</v>
+      </c>
+      <c r="C28" t="s">
+        <v>472</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>473</v>
+      </c>
+      <c r="B29" t="s">
+        <v>474</v>
+      </c>
+      <c r="C29" t="s">
+        <v>475</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>476</v>
+      </c>
+      <c r="B30" t="s">
+        <v>477</v>
+      </c>
+      <c r="C30" t="s">
+        <v>478</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B31" t="s">
+        <v>480</v>
+      </c>
+      <c r="C31" t="s">
+        <v>481</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>620</v>
+      </c>
+      <c r="B32" t="s">
+        <v>621</v>
+      </c>
+      <c r="C32" t="s">
+        <v>622</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>482</v>
+      </c>
+      <c r="B33" t="s">
+        <v>483</v>
+      </c>
+      <c r="C33" t="s">
+        <v>484</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>485</v>
+      </c>
+      <c r="B34" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" t="s">
+        <v>487</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>488</v>
+      </c>
+      <c r="B35" t="s">
+        <v>489</v>
+      </c>
+      <c r="C35" t="s">
+        <v>490</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>491</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>492</v>
+      </c>
+      <c r="B36" t="s">
+        <v>493</v>
+      </c>
+      <c r="C36" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>495</v>
+      </c>
+      <c r="B37" t="s">
+        <v>496</v>
+      </c>
+      <c r="C37" t="s">
+        <v>497</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>498</v>
+      </c>
+      <c r="B38" t="s">
+        <v>499</v>
+      </c>
+      <c r="C38" t="s">
+        <v>500</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>501</v>
+      </c>
+      <c r="B39" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" t="s">
+        <v>503</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>504</v>
+      </c>
+      <c r="B40" t="s">
+        <v>489</v>
+      </c>
+      <c r="C40" t="s">
+        <v>505</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>491</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>506</v>
+      </c>
+      <c r="B41" t="s">
+        <v>507</v>
+      </c>
+      <c r="C41" t="s">
+        <v>508</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>623</v>
+      </c>
+      <c r="B42" t="s">
+        <v>624</v>
+      </c>
+      <c r="C42" t="s">
+        <v>625</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>509</v>
+      </c>
+      <c r="B43" t="s">
+        <v>510</v>
+      </c>
+      <c r="C43" t="s">
+        <v>511</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>512</v>
+      </c>
+      <c r="B44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C44" t="s">
+        <v>514</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>515</v>
+      </c>
+      <c r="B45" t="s">
+        <v>516</v>
+      </c>
+      <c r="C45" t="s">
+        <v>517</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>626</v>
+      </c>
+      <c r="B46" t="s">
+        <v>627</v>
+      </c>
+      <c r="C46" t="s">
+        <v>628</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>629</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>518</v>
+      </c>
+      <c r="B47" t="s">
+        <v>519</v>
+      </c>
+      <c r="C47" t="s">
+        <v>520</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>521</v>
+      </c>
+      <c r="F47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B48" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>522</v>
+      </c>
+      <c r="B49" t="s">
+        <v>523</v>
+      </c>
+      <c r="C49" t="s">
+        <v>524</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>630</v>
+      </c>
+      <c r="B50" t="s">
+        <v>631</v>
+      </c>
+      <c r="C50" t="s">
+        <v>632</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>525</v>
+      </c>
+      <c r="B51" t="s">
+        <v>526</v>
+      </c>
+      <c r="C51" t="s">
+        <v>527</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>528</v>
+      </c>
+      <c r="B52" t="s">
+        <v>529</v>
+      </c>
+      <c r="C52" t="s">
+        <v>530</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>531</v>
+      </c>
+      <c r="B53" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" t="s">
+        <v>533</v>
+      </c>
+      <c r="D53" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>534</v>
+      </c>
+      <c r="B54" t="s">
+        <v>535</v>
+      </c>
+      <c r="C54" t="s">
+        <v>536</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>537</v>
+      </c>
+      <c r="B55" t="s">
+        <v>538</v>
+      </c>
+      <c r="C55" t="s">
+        <v>539</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>540</v>
+      </c>
+      <c r="B56" t="s">
+        <v>541</v>
+      </c>
+      <c r="C56" t="s">
+        <v>542</v>
+      </c>
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" t="s">
+        <v>319</v>
+      </c>
+      <c r="F56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>543</v>
+      </c>
+      <c r="B57" t="s">
+        <v>544</v>
+      </c>
+      <c r="C57" t="s">
+        <v>545</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>633</v>
+      </c>
+      <c r="B58" t="s">
+        <v>634</v>
+      </c>
+      <c r="C58" t="s">
+        <v>635</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>546</v>
+      </c>
+      <c r="B59" t="s">
+        <v>547</v>
+      </c>
+      <c r="C59" t="s">
+        <v>548</v>
+      </c>
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G59" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>549</v>
+      </c>
+      <c r="B60" t="s">
+        <v>550</v>
+      </c>
+      <c r="C60" t="s">
+        <v>551</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>636</v>
+      </c>
+      <c r="B61" t="s">
+        <v>637</v>
+      </c>
+      <c r="C61" t="s">
+        <v>638</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" t="s">
+        <v>639</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>640</v>
+      </c>
+      <c r="B62" t="s">
+        <v>641</v>
+      </c>
+      <c r="C62" t="s">
+        <v>642</v>
+      </c>
+      <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>553</v>
+      </c>
+      <c r="B63" t="s">
+        <v>554</v>
+      </c>
+      <c r="C63" t="s">
+        <v>555</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>556</v>
+      </c>
+      <c r="B64" t="s">
+        <v>557</v>
+      </c>
+      <c r="C64" t="s">
+        <v>558</v>
+      </c>
+      <c r="D64" t="s">
+        <v>351</v>
+      </c>
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>559</v>
+      </c>
+      <c r="B65" t="s">
+        <v>560</v>
+      </c>
+      <c r="C65" t="s">
+        <v>561</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>643</v>
+      </c>
+      <c r="B66" t="s">
+        <v>644</v>
+      </c>
+      <c r="C66" t="s">
+        <v>645</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>67</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>562</v>
+      </c>
+      <c r="B68" t="s">
+        <v>563</v>
+      </c>
+      <c r="C68" t="s">
+        <v>564</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>565</v>
+      </c>
+      <c r="B69" t="s">
+        <v>566</v>
+      </c>
+      <c r="C69" t="s">
+        <v>567</v>
+      </c>
+      <c r="D69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>647</v>
+      </c>
+      <c r="B70" t="s">
+        <v>648</v>
+      </c>
+      <c r="C70" t="s">
+        <v>649</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>650</v>
+      </c>
+      <c r="B71" t="s">
+        <v>651</v>
+      </c>
+      <c r="C71" t="s">
+        <v>652</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>323</v>
+      </c>
+      <c r="B72" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>653</v>
+      </c>
+      <c r="B73" t="s">
+        <v>654</v>
+      </c>
+      <c r="C73" t="s">
+        <v>655</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>568</v>
+      </c>
+      <c r="B74" t="s">
+        <v>569</v>
+      </c>
+      <c r="C74" t="s">
+        <v>570</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>656</v>
+      </c>
+      <c r="B75" t="s">
+        <v>657</v>
+      </c>
+      <c r="C75" t="s">
+        <v>658</v>
+      </c>
+      <c r="D75" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" t="s">
+        <v>343</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>572</v>
+      </c>
+      <c r="B77" t="s">
+        <v>573</v>
+      </c>
+      <c r="C77" t="s">
+        <v>574</v>
+      </c>
+      <c r="D77" t="s">
+        <v>373</v>
+      </c>
+      <c r="E77" t="s">
+        <v>60</v>
+      </c>
+      <c r="F77" t="s">
+        <v>124</v>
+      </c>
+      <c r="G77" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>659</v>
+      </c>
+      <c r="B78" t="s">
+        <v>660</v>
+      </c>
+      <c r="C78" t="s">
+        <v>661</v>
+      </c>
+      <c r="D78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>575</v>
+      </c>
+      <c r="B79" t="s">
+        <v>576</v>
+      </c>
+      <c r="C79" t="s">
+        <v>577</v>
+      </c>
+      <c r="D79" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>578</v>
+      </c>
+      <c r="B80" t="s">
+        <v>579</v>
+      </c>
+      <c r="C80" t="s">
+        <v>580</v>
+      </c>
+      <c r="D80" t="s">
+        <v>351</v>
+      </c>
+      <c r="E80" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" t="s">
+        <v>124</v>
+      </c>
+      <c r="G80" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>581</v>
+      </c>
+      <c r="B81" t="s">
+        <v>582</v>
+      </c>
+      <c r="C81" t="s">
+        <v>583</v>
+      </c>
+      <c r="D81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>50</v>
+      </c>
+      <c r="F81" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>584</v>
+      </c>
+      <c r="B82" t="s">
+        <v>585</v>
+      </c>
+      <c r="C82" t="s">
+        <v>586</v>
+      </c>
+      <c r="D82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="G82" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>587</v>
+      </c>
+      <c r="B83" t="s">
+        <v>588</v>
+      </c>
+      <c r="C83" t="s">
+        <v>589</v>
+      </c>
+      <c r="D83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>590</v>
+      </c>
+      <c r="B84" t="s">
+        <v>591</v>
+      </c>
+      <c r="C84" t="s">
+        <v>592</v>
+      </c>
+      <c r="D84" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" t="s">
+        <v>277</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>593</v>
+      </c>
+      <c r="B85" t="s">
+        <v>594</v>
+      </c>
+      <c r="C85" t="s">
+        <v>595</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" t="s">
+        <v>40</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>596</v>
+      </c>
+      <c r="B86" t="s">
+        <v>582</v>
+      </c>
+      <c r="C86" t="s">
+        <v>597</v>
+      </c>
+      <c r="D86" t="s">
+        <v>373</v>
+      </c>
+      <c r="E86" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>402</v>
+      </c>
+      <c r="B87" t="s">
+        <v>403</v>
+      </c>
+      <c r="C87" t="s">
+        <v>404</v>
+      </c>
+      <c r="D87" t="s">
+        <v>405</v>
+      </c>
+      <c r="E87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>598</v>
+      </c>
+      <c r="B88" t="s">
+        <v>599</v>
+      </c>
+      <c r="C88" t="s">
+        <v>600</v>
+      </c>
+      <c r="D88" t="s">
+        <v>351</v>
+      </c>
+      <c r="E88" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" t="s">
+        <v>40</v>
+      </c>
+      <c r="G88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>601</v>
+      </c>
+      <c r="B89" t="s">
+        <v>582</v>
+      </c>
+      <c r="C89" t="s">
+        <v>602</v>
+      </c>
+      <c r="D89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" t="s">
+        <v>40</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>603</v>
+      </c>
+      <c r="B90" t="s">
+        <v>604</v>
+      </c>
+      <c r="C90" t="s">
+        <v>605</v>
+      </c>
+      <c r="D90" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" t="s">
+        <v>124</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>662</v>
+      </c>
+      <c r="B91" t="s">
+        <v>663</v>
+      </c>
+      <c r="C91" t="s">
+        <v>664</v>
+      </c>
+      <c r="D91" t="s">
+        <v>405</v>
+      </c>
+      <c r="E91" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>665</v>
+      </c>
+      <c r="B92" t="s">
+        <v>666</v>
+      </c>
+      <c r="C92" t="s">
+        <v>667</v>
+      </c>
+      <c r="D92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>668</v>
+      </c>
+      <c r="B93" t="s">
+        <v>663</v>
+      </c>
+      <c r="C93" t="s">
+        <v>669</v>
+      </c>
+      <c r="D93" t="s">
+        <v>351</v>
+      </c>
+      <c r="E93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>671</v>
+      </c>
+      <c r="B94" t="s">
+        <v>663</v>
+      </c>
+      <c r="C94" t="s">
+        <v>672</v>
+      </c>
+      <c r="D94" t="s">
+        <v>351</v>
+      </c>
+      <c r="E94" t="s">
+        <v>60</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>606</v>
+      </c>
+      <c r="B95" t="s">
+        <v>607</v>
+      </c>
+      <c r="C95" t="s">
+        <v>608</v>
+      </c>
+      <c r="E95" t="s">
+        <v>107</v>
+      </c>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>609</v>
+      </c>
+      <c r="B96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" t="s">
+        <v>610</v>
+      </c>
+      <c r="E96" t="s">
+        <v>67</v>
+      </c>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>611</v>
+      </c>
+      <c r="B97" t="s">
+        <v>612</v>
+      </c>
+      <c r="C97" t="s">
+        <v>613</v>
+      </c>
+      <c r="E97" t="s">
+        <v>60</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>673</v>
+      </c>
+      <c r="B98" t="s">
+        <v>674</v>
+      </c>
+      <c r="C98" t="s">
+        <v>675</v>
+      </c>
+      <c r="E98" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>677</v>
+      </c>
+      <c r="B99" t="s">
+        <v>678</v>
+      </c>
+      <c r="C99" t="s">
+        <v>679</v>
+      </c>
+      <c r="E99" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G99">
+    <sortCondition descending="1" ref="G2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B29A1-09AF-4042-A7BE-1878BB72E077}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>419</v>
+      <c r="A2" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s">
-        <v>423</v>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" t="s">
-        <v>426</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>427</v>
+      <c r="A5" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>428</v>
-      </c>
-      <c r="B6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C6" t="s">
-        <v>430</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s">
-        <v>431</v>
+      <c r="F6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>701</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>702</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>703</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>704</v>
       </c>
       <c r="B8" t="s">
-        <v>433</v>
+        <v>705</v>
       </c>
       <c r="C8" t="s">
-        <v>434</v>
+        <v>706</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>435</v>
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>707</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>708</v>
       </c>
       <c r="C9" t="s">
-        <v>438</v>
+        <v>709</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>439</v>
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>710</v>
       </c>
       <c r="B10" t="s">
-        <v>441</v>
+        <v>711</v>
       </c>
       <c r="C10" t="s">
-        <v>442</v>
+        <v>712</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" t="s">
-        <v>443</v>
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>713</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>714</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>715</v>
       </c>
       <c r="D11" t="s">
+        <v>414</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>448</v>
-      </c>
-      <c r="B13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C13" t="s">
-        <v>450</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B14" t="s">
-        <v>453</v>
-      </c>
-      <c r="C14" t="s">
-        <v>454</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="G42" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C15" t="s">
-        <v>458</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="G43" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E15" t="s">
-        <v>333</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>460</v>
-      </c>
-      <c r="B16" t="s">
-        <v>461</v>
-      </c>
-      <c r="C16" t="s">
-        <v>462</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>464</v>
-      </c>
-      <c r="B17" t="s">
-        <v>465</v>
-      </c>
-      <c r="C17" t="s">
-        <v>466</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>468</v>
-      </c>
-      <c r="B19" t="s">
-        <v>469</v>
-      </c>
-      <c r="C19" t="s">
-        <v>470</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>472</v>
-      </c>
-      <c r="B21" t="s">
-        <v>473</v>
-      </c>
-      <c r="C21" t="s">
-        <v>474</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="F44" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>475</v>
-      </c>
-      <c r="B23" t="s">
-        <v>476</v>
-      </c>
-      <c r="C23" t="s">
-        <v>477</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
-        <v>268</v>
-      </c>
-      <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>479</v>
-      </c>
-      <c r="B24" t="s">
-        <v>480</v>
-      </c>
-      <c r="C24" t="s">
-        <v>481</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>483</v>
-      </c>
-      <c r="B25" t="s">
-        <v>484</v>
-      </c>
-      <c r="C25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>487</v>
-      </c>
-      <c r="B26" t="s">
-        <v>488</v>
-      </c>
-      <c r="C26" t="s">
-        <v>489</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>491</v>
-      </c>
-      <c r="B27" t="s">
-        <v>492</v>
-      </c>
-      <c r="C27" t="s">
-        <v>493</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>494</v>
-      </c>
-      <c r="B28" t="s">
-        <v>495</v>
-      </c>
-      <c r="C28" t="s">
-        <v>496</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>498</v>
-      </c>
-      <c r="B29" t="s">
-        <v>499</v>
-      </c>
-      <c r="C29" t="s">
-        <v>500</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>501</v>
-      </c>
-      <c r="B30" t="s">
-        <v>502</v>
-      </c>
-      <c r="C30" t="s">
-        <v>503</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>505</v>
-      </c>
-      <c r="B31" t="s">
-        <v>506</v>
-      </c>
-      <c r="C31" t="s">
-        <v>507</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>333</v>
-      </c>
-      <c r="F31" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>508</v>
-      </c>
-      <c r="B32" t="s">
-        <v>509</v>
-      </c>
-      <c r="C32" t="s">
-        <v>510</v>
-      </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>511</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>513</v>
-      </c>
-      <c r="B33" t="s">
-        <v>514</v>
-      </c>
-      <c r="C33" t="s">
-        <v>515</v>
-      </c>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>517</v>
-      </c>
-      <c r="B34" t="s">
-        <v>518</v>
-      </c>
-      <c r="C34" t="s">
-        <v>519</v>
-      </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>521</v>
-      </c>
-      <c r="B35" t="s">
-        <v>522</v>
-      </c>
-      <c r="C35" t="s">
-        <v>523</v>
-      </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>525</v>
-      </c>
-      <c r="B36" t="s">
-        <v>526</v>
-      </c>
-      <c r="C36" t="s">
-        <v>527</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>529</v>
-      </c>
-      <c r="B37" t="s">
-        <v>509</v>
-      </c>
-      <c r="C37" t="s">
-        <v>530</v>
-      </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" t="s">
-        <v>511</v>
-      </c>
-      <c r="F37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>531</v>
-      </c>
-      <c r="B38" t="s">
-        <v>532</v>
-      </c>
-      <c r="C38" t="s">
-        <v>533</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>535</v>
-      </c>
-      <c r="B39" t="s">
-        <v>536</v>
-      </c>
-      <c r="C39" t="s">
-        <v>537</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>539</v>
-      </c>
-      <c r="B40" t="s">
-        <v>540</v>
-      </c>
-      <c r="C40" t="s">
-        <v>541</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>543</v>
-      </c>
-      <c r="B41" t="s">
-        <v>544</v>
-      </c>
-      <c r="C41" t="s">
-        <v>545</v>
-      </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>546</v>
-      </c>
-      <c r="B42" t="s">
-        <v>547</v>
-      </c>
-      <c r="C42" t="s">
-        <v>548</v>
-      </c>
-      <c r="D42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" t="s">
-        <v>549</v>
-      </c>
-      <c r="F42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>253</v>
-      </c>
-      <c r="B43" t="s">
-        <v>254</v>
-      </c>
-      <c r="C43" t="s">
-        <v>255</v>
-      </c>
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>550</v>
-      </c>
-      <c r="B44" t="s">
-        <v>551</v>
-      </c>
-      <c r="C44" t="s">
-        <v>552</v>
-      </c>
-      <c r="D44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>553</v>
-      </c>
-      <c r="B45" t="s">
-        <v>554</v>
-      </c>
-      <c r="C45" t="s">
-        <v>555</v>
-      </c>
-      <c r="D45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>273</v>
-      </c>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>556</v>
-      </c>
-      <c r="B46" t="s">
-        <v>557</v>
-      </c>
-      <c r="C46" t="s">
-        <v>558</v>
-      </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>559</v>
-      </c>
+      <c r="A46" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>560</v>
-      </c>
-      <c r="B47" t="s">
-        <v>561</v>
-      </c>
-      <c r="C47" t="s">
-        <v>562</v>
-      </c>
-      <c r="D47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" t="s">
-        <v>319</v>
-      </c>
-      <c r="F47" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>564</v>
-      </c>
-      <c r="B48" t="s">
-        <v>565</v>
-      </c>
-      <c r="C48" t="s">
-        <v>566</v>
-      </c>
-      <c r="D48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" t="s">
-        <v>124</v>
-      </c>
-      <c r="G48" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>567</v>
-      </c>
-      <c r="B49" t="s">
-        <v>568</v>
-      </c>
-      <c r="C49" t="s">
-        <v>569</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>571</v>
-      </c>
-      <c r="B50" t="s">
-        <v>572</v>
-      </c>
-      <c r="C50" t="s">
-        <v>573</v>
-      </c>
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>319</v>
-      </c>
-      <c r="F50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>574</v>
-      </c>
-      <c r="B51" t="s">
-        <v>575</v>
-      </c>
-      <c r="C51" t="s">
-        <v>576</v>
-      </c>
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>578</v>
-      </c>
-      <c r="B52" t="s">
-        <v>579</v>
-      </c>
-      <c r="C52" t="s">
-        <v>580</v>
-      </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>582</v>
-      </c>
-      <c r="B53" t="s">
-        <v>583</v>
-      </c>
-      <c r="C53" t="s">
-        <v>584</v>
-      </c>
-      <c r="D53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>586</v>
-      </c>
-      <c r="B54" t="s">
-        <v>587</v>
-      </c>
-      <c r="C54" t="s">
-        <v>588</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>590</v>
-      </c>
-      <c r="B55" t="s">
-        <v>591</v>
-      </c>
-      <c r="C55" t="s">
-        <v>592</v>
-      </c>
-      <c r="D55" t="s">
-        <v>351</v>
-      </c>
-      <c r="E55" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>593</v>
-      </c>
-      <c r="B56" t="s">
-        <v>594</v>
-      </c>
-      <c r="C56" t="s">
-        <v>595</v>
-      </c>
-      <c r="D56" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>297</v>
-      </c>
-      <c r="B57" t="s">
-        <v>298</v>
-      </c>
-      <c r="C57" t="s">
-        <v>299</v>
-      </c>
-      <c r="D57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>597</v>
-      </c>
-      <c r="B58" t="s">
-        <v>598</v>
-      </c>
-      <c r="C58" t="s">
-        <v>599</v>
-      </c>
-      <c r="D58" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>600</v>
-      </c>
-      <c r="B59" t="s">
-        <v>601</v>
-      </c>
-      <c r="C59" t="s">
-        <v>602</v>
-      </c>
-      <c r="D59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>323</v>
-      </c>
-      <c r="B60" t="s">
-        <v>324</v>
-      </c>
-      <c r="C60" t="s">
-        <v>325</v>
-      </c>
-      <c r="D60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>603</v>
-      </c>
-      <c r="B61" t="s">
-        <v>604</v>
-      </c>
-      <c r="C61" t="s">
-        <v>605</v>
-      </c>
-      <c r="D61" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>342</v>
-      </c>
-      <c r="B62" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" t="s">
-        <v>343</v>
-      </c>
-      <c r="D62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" t="s">
-        <v>133</v>
-      </c>
-      <c r="G62" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>607</v>
-      </c>
-      <c r="B63" t="s">
-        <v>608</v>
-      </c>
-      <c r="C63" t="s">
-        <v>609</v>
-      </c>
-      <c r="D63" t="s">
-        <v>373</v>
-      </c>
-      <c r="E63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
-      </c>
-      <c r="G63" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>610</v>
-      </c>
-      <c r="B64" t="s">
-        <v>611</v>
-      </c>
-      <c r="C64" t="s">
-        <v>612</v>
-      </c>
-      <c r="D64" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>613</v>
-      </c>
-      <c r="B65" t="s">
-        <v>614</v>
-      </c>
-      <c r="C65" t="s">
-        <v>615</v>
-      </c>
-      <c r="D65" t="s">
-        <v>351</v>
-      </c>
-      <c r="E65" t="s">
-        <v>50</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
-      </c>
-      <c r="G65" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>616</v>
-      </c>
-      <c r="B66" t="s">
-        <v>617</v>
-      </c>
-      <c r="C66" t="s">
-        <v>618</v>
-      </c>
-      <c r="D66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" t="s">
-        <v>50</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
-      </c>
-      <c r="G66" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>619</v>
-      </c>
-      <c r="B67" t="s">
-        <v>620</v>
-      </c>
-      <c r="C67" t="s">
-        <v>621</v>
-      </c>
-      <c r="D67" t="s">
-        <v>55</v>
-      </c>
-      <c r="E67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>622</v>
-      </c>
-      <c r="B68" t="s">
-        <v>623</v>
-      </c>
-      <c r="C68" t="s">
-        <v>624</v>
-      </c>
-      <c r="D68" t="s">
-        <v>55</v>
-      </c>
-      <c r="E68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" t="s">
-        <v>40</v>
-      </c>
-      <c r="G68" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>626</v>
-      </c>
-      <c r="B69" t="s">
-        <v>627</v>
-      </c>
-      <c r="C69" t="s">
-        <v>628</v>
-      </c>
-      <c r="D69" t="s">
-        <v>55</v>
-      </c>
-      <c r="E69" t="s">
-        <v>277</v>
-      </c>
-      <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>629</v>
-      </c>
-      <c r="B70" t="s">
-        <v>630</v>
-      </c>
-      <c r="C70" t="s">
-        <v>631</v>
-      </c>
-      <c r="D70" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" t="s">
-        <v>40</v>
-      </c>
-      <c r="G70" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>632</v>
-      </c>
-      <c r="B71" t="s">
-        <v>617</v>
-      </c>
-      <c r="C71" t="s">
-        <v>633</v>
-      </c>
-      <c r="D71" t="s">
-        <v>373</v>
-      </c>
-      <c r="E71" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>402</v>
-      </c>
-      <c r="B72" t="s">
-        <v>403</v>
-      </c>
-      <c r="C72" t="s">
-        <v>404</v>
-      </c>
-      <c r="D72" t="s">
-        <v>405</v>
-      </c>
-      <c r="E72" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" t="s">
-        <v>124</v>
-      </c>
-      <c r="G72" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>634</v>
-      </c>
-      <c r="B73" t="s">
-        <v>635</v>
-      </c>
-      <c r="C73" t="s">
-        <v>636</v>
-      </c>
-      <c r="D73" t="s">
-        <v>351</v>
-      </c>
-      <c r="E73" t="s">
-        <v>164</v>
-      </c>
-      <c r="F73" t="s">
-        <v>40</v>
-      </c>
-      <c r="G73" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>637</v>
-      </c>
-      <c r="B74" t="s">
-        <v>617</v>
-      </c>
-      <c r="C74" t="s">
-        <v>638</v>
-      </c>
-      <c r="D74" t="s">
-        <v>351</v>
-      </c>
-      <c r="E74" t="s">
-        <v>50</v>
-      </c>
-      <c r="F74" t="s">
-        <v>40</v>
-      </c>
-      <c r="G74" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>639</v>
-      </c>
-      <c r="B75" t="s">
-        <v>640</v>
-      </c>
-      <c r="C75" t="s">
-        <v>641</v>
-      </c>
-      <c r="D75" t="s">
-        <v>55</v>
-      </c>
-      <c r="E75" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" t="s">
-        <v>124</v>
-      </c>
-      <c r="G75" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>642</v>
-      </c>
-      <c r="B76" t="s">
-        <v>643</v>
-      </c>
-      <c r="C76" t="s">
-        <v>644</v>
-      </c>
-      <c r="E76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>645</v>
-      </c>
-      <c r="B77" t="s">
-        <v>298</v>
-      </c>
-      <c r="C77" t="s">
-        <v>646</v>
-      </c>
-      <c r="E77" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>647</v>
-      </c>
-      <c r="B78" t="s">
-        <v>648</v>
-      </c>
-      <c r="C78" t="s">
-        <v>649</v>
-      </c>
-      <c r="E78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>650</v>
-      </c>
-      <c r="B79" t="s">
-        <v>651</v>
-      </c>
-      <c r="C79" t="s">
-        <v>652</v>
-      </c>
-      <c r="D79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E79" t="s">
-        <v>333</v>
-      </c>
-      <c r="F79" t="s">
-        <v>40</v>
-      </c>
-      <c r="G79" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>654</v>
-      </c>
-      <c r="B80" t="s">
-        <v>655</v>
-      </c>
-      <c r="C80" t="s">
-        <v>656</v>
-      </c>
-      <c r="D80" t="s">
-        <v>29</v>
-      </c>
-      <c r="E80" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" t="s">
-        <v>35</v>
-      </c>
-      <c r="G80" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>658</v>
-      </c>
-      <c r="B81" t="s">
-        <v>659</v>
-      </c>
-      <c r="C81" t="s">
-        <v>660</v>
-      </c>
-      <c r="D81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" t="s">
-        <v>67</v>
-      </c>
-      <c r="F81" t="s">
-        <v>111</v>
-      </c>
-      <c r="G81" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>662</v>
-      </c>
-      <c r="B82" t="s">
-        <v>663</v>
-      </c>
-      <c r="C82" t="s">
-        <v>664</v>
-      </c>
-      <c r="D82" t="s">
-        <v>45</v>
-      </c>
-      <c r="E82" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>666</v>
-      </c>
-      <c r="B83" t="s">
-        <v>667</v>
-      </c>
-      <c r="C83" t="s">
-        <v>668</v>
-      </c>
-      <c r="D83" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" t="s">
-        <v>669</v>
-      </c>
-      <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>671</v>
-      </c>
-      <c r="B84" t="s">
-        <v>672</v>
-      </c>
-      <c r="C84" t="s">
-        <v>673</v>
-      </c>
-      <c r="D84" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" t="s">
-        <v>295</v>
-      </c>
-      <c r="G84" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>675</v>
-      </c>
-      <c r="B85" t="s">
-        <v>676</v>
-      </c>
-      <c r="C85" t="s">
-        <v>677</v>
-      </c>
-      <c r="D85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>678</v>
-      </c>
-      <c r="B86" t="s">
-        <v>679</v>
-      </c>
-      <c r="C86" t="s">
-        <v>680</v>
-      </c>
-      <c r="D86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E86" t="s">
-        <v>681</v>
-      </c>
-      <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>683</v>
-      </c>
-      <c r="B87" t="s">
-        <v>684</v>
-      </c>
-      <c r="C87" t="s">
-        <v>685</v>
-      </c>
-      <c r="D87" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" t="s">
-        <v>67</v>
-      </c>
-      <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>686</v>
-      </c>
-      <c r="B88" t="s">
-        <v>687</v>
-      </c>
-      <c r="C88" t="s">
-        <v>688</v>
-      </c>
-      <c r="D88" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" t="s">
-        <v>67</v>
-      </c>
-      <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>690</v>
-      </c>
-      <c r="B89" t="s">
-        <v>691</v>
-      </c>
-      <c r="C89" t="s">
-        <v>692</v>
-      </c>
-      <c r="D89" t="s">
-        <v>66</v>
-      </c>
-      <c r="E89" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>693</v>
-      </c>
-      <c r="B90" t="s">
-        <v>694</v>
-      </c>
-      <c r="C90" t="s">
-        <v>695</v>
-      </c>
-      <c r="D90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>696</v>
-      </c>
-      <c r="B91" t="s">
-        <v>697</v>
-      </c>
-      <c r="C91" t="s">
-        <v>698</v>
-      </c>
-      <c r="D91" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" t="s">
-        <v>164</v>
-      </c>
-      <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>699</v>
-      </c>
-      <c r="B92" t="s">
-        <v>700</v>
-      </c>
-      <c r="C92" t="s">
-        <v>701</v>
-      </c>
-      <c r="D92" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" t="s">
-        <v>60</v>
-      </c>
-      <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>702</v>
-      </c>
-      <c r="B93" t="s">
-        <v>703</v>
-      </c>
-      <c r="C93" t="s">
-        <v>704</v>
-      </c>
-      <c r="D93" t="s">
-        <v>66</v>
-      </c>
-      <c r="E93" t="s">
-        <v>107</v>
-      </c>
-      <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>705</v>
-      </c>
-      <c r="B94" t="s">
-        <v>706</v>
-      </c>
-      <c r="C94" t="s">
-        <v>707</v>
-      </c>
-      <c r="D94" t="s">
-        <v>405</v>
-      </c>
-      <c r="E94" t="s">
-        <v>60</v>
-      </c>
-      <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>708</v>
-      </c>
-      <c r="B95" t="s">
-        <v>709</v>
-      </c>
-      <c r="C95" t="s">
-        <v>710</v>
-      </c>
-      <c r="D95" t="s">
-        <v>55</v>
-      </c>
-      <c r="E95" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>711</v>
-      </c>
-      <c r="B96" t="s">
-        <v>706</v>
-      </c>
-      <c r="C96" t="s">
-        <v>712</v>
-      </c>
-      <c r="D96" t="s">
-        <v>351</v>
-      </c>
-      <c r="E96" t="s">
-        <v>60</v>
-      </c>
-      <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>714</v>
-      </c>
-      <c r="B97" t="s">
-        <v>706</v>
-      </c>
-      <c r="C97" t="s">
-        <v>715</v>
-      </c>
-      <c r="D97" t="s">
-        <v>351</v>
-      </c>
-      <c r="E97" t="s">
-        <v>60</v>
-      </c>
-      <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>716</v>
-      </c>
-      <c r="B98" t="s">
-        <v>717</v>
-      </c>
-      <c r="C98" t="s">
-        <v>718</v>
-      </c>
-      <c r="E98" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>720</v>
-      </c>
-      <c r="B99" t="s">
-        <v>721</v>
-      </c>
-      <c r="C99" t="s">
-        <v>722</v>
-      </c>
-      <c r="E99" t="s">
-        <v>295</v>
-      </c>
+      <c r="A47" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/crawling/data/yogiyo_서울대_final.xlsx
+++ b/crawling/data/yogiyo_서울대_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\error_fix\crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E986B5F-8A3E-4491-B01B-406ED44CF60C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09327B5C-8FFE-4FC9-9866-9C31F704BA68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="치킨" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4874" uniqueCount="1947">
   <si>
     <t>상세페이지URL</t>
   </si>
@@ -5874,6 +5874,10 @@
   </si>
   <si>
     <t>테트리스찜닭-관악점</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6243,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8599,7 +8603,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8637,13 +8641,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41A7A93-EC7F-48E6-AF5C-3C4F0B96B6AA}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="49.625" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9536,6 +9541,9 @@
       <c r="E39" t="s">
         <v>27</v>
       </c>
+      <c r="F39" t="s">
+        <v>1946</v>
+      </c>
       <c r="G39" s="1">
         <v>123</v>
       </c>
@@ -9786,6 +9794,9 @@
       <c r="E50" t="s">
         <v>231</v>
       </c>
+      <c r="F50" t="s">
+        <v>1946</v>
+      </c>
       <c r="G50" s="1">
         <v>59</v>
       </c>
@@ -10266,6 +10277,9 @@
       <c r="E71" t="s">
         <v>27</v>
       </c>
+      <c r="F71" t="s">
+        <v>1946</v>
+      </c>
       <c r="G71" s="1">
         <v>17</v>
       </c>
@@ -10809,8 +10823,14 @@
       <c r="C95" t="s">
         <v>525</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>1946</v>
+      </c>
       <c r="E95" t="s">
         <v>87</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>1946</v>
       </c>
       <c r="G95" s="1">
         <v>0</v>
@@ -10826,8 +10846,14 @@
       <c r="C96" t="s">
         <v>527</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>1946</v>
+      </c>
       <c r="E96" t="s">
         <v>57</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>1946</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
@@ -10843,8 +10869,14 @@
       <c r="C97" t="s">
         <v>530</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>1946</v>
+      </c>
       <c r="E97" t="s">
         <v>51</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>1946</v>
       </c>
       <c r="G97" s="1">
         <v>0</v>
@@ -10860,8 +10892,14 @@
       <c r="C98" t="s">
         <v>590</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>1946</v>
+      </c>
       <c r="E98" t="s">
         <v>591</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>1946</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
@@ -10877,8 +10915,14 @@
       <c r="C99" t="s">
         <v>594</v>
       </c>
+      <c r="D99" t="s">
+        <v>1946</v>
+      </c>
       <c r="E99" t="s">
         <v>231</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>1946</v>
       </c>
       <c r="G99" s="1">
         <v>0</v>
@@ -11050,8 +11094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B29A1-09AF-4042-A7BE-1878BB72E077}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12522,8 +12566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38BCA0A-C8D2-4C36-8BA6-56D5938B9E0F}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14870,8 +14914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1042010A-678A-49CA-867C-B98715D04A6B}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17216,8 +17260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C188D7-9066-4A10-AD25-75BE3143D94A}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19045,8 +19089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0187EE52-2FD8-4DCA-A004-843989572EB3}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21401,7 +21445,7 @@
   <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J122" sqref="J122"/>
+      <selection activeCell="A2" sqref="A2:G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24287,8 +24331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF62A510-41CA-4CA8-B2C8-131B2D4B0A88}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
